--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>1381.905250179444</v>
+        <v>1277.231843857993</v>
       </c>
       <c r="R2">
-        <v>12437.147251615</v>
+        <v>11495.08659472194</v>
       </c>
       <c r="S2">
-        <v>0.0009982617993287205</v>
+        <v>0.001919340955599383</v>
       </c>
       <c r="T2">
-        <v>0.0009982617993287205</v>
+        <v>0.001919340955599383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>5717.360470399977</v>
+        <v>6145.603652759989</v>
       </c>
       <c r="R3">
-        <v>51456.24423359979</v>
+        <v>55310.4328748399</v>
       </c>
       <c r="S3">
-        <v>0.004130111344356827</v>
+        <v>0.009235213516125648</v>
       </c>
       <c r="T3">
-        <v>0.004130111344356826</v>
+        <v>0.009235213516125645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>15087.90661760454</v>
+        <v>11092.21170132692</v>
       </c>
       <c r="R4">
-        <v>135791.1595584409</v>
+        <v>99829.90531194229</v>
       </c>
       <c r="S4">
-        <v>0.01089921382543254</v>
+        <v>0.01666865440985869</v>
       </c>
       <c r="T4">
-        <v>0.01089921382543254</v>
+        <v>0.01666865440985868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>4048.272000120592</v>
+        <v>2732.146702850823</v>
       </c>
       <c r="R5">
-        <v>36434.44800108532</v>
+        <v>24589.32032565741</v>
       </c>
       <c r="S5">
-        <v>0.002924393905072504</v>
+        <v>0.004105692391482874</v>
       </c>
       <c r="T5">
-        <v>0.002924393905072503</v>
+        <v>0.004105692391482873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>17414.44606389785</v>
+        <v>7447.041572606124</v>
       </c>
       <c r="R6">
-        <v>156730.0145750807</v>
+        <v>67023.37415345512</v>
       </c>
       <c r="S6">
-        <v>0.01257986121682528</v>
+        <v>0.01119092978858063</v>
       </c>
       <c r="T6">
-        <v>0.01257986121682528</v>
+        <v>0.01119092978858063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>30419.71896996097</v>
+        <v>26156.38343610851</v>
       </c>
       <c r="R7">
-        <v>273777.4707296488</v>
+        <v>235407.4509249766</v>
       </c>
       <c r="S7">
-        <v>0.02197462046698501</v>
+        <v>0.03930611205843545</v>
       </c>
       <c r="T7">
-        <v>0.02197462046698502</v>
+        <v>0.03930611205843544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>125855.588678708</v>
@@ -948,10 +948,10 @@
         <v>1132700.298108372</v>
       </c>
       <c r="S8">
-        <v>0.09091565893802639</v>
+        <v>0.1891275941824794</v>
       </c>
       <c r="T8">
-        <v>0.0909156589380264</v>
+        <v>0.1891275941824793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>332128.3272445388</v>
+        <v>227156.9909641671</v>
       </c>
       <c r="R9">
-        <v>2989154.945200849</v>
+        <v>2044412.918677504</v>
       </c>
       <c r="S9">
-        <v>0.2399231217336489</v>
+        <v>0.3413567538304502</v>
       </c>
       <c r="T9">
-        <v>0.2399231217336489</v>
+        <v>0.3413567538304502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>89114.13900601307</v>
+        <v>55951.53073196575</v>
       </c>
       <c r="R10">
-        <v>802027.2510541176</v>
+        <v>503563.7765876917</v>
       </c>
       <c r="S10">
-        <v>0.06437434168386053</v>
+        <v>0.08408032181374223</v>
       </c>
       <c r="T10">
-        <v>0.06437434168386054</v>
+        <v>0.08408032181374221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>383342.1685115729</v>
+        <v>152507.6874448673</v>
       </c>
       <c r="R11">
-        <v>3450079.516604157</v>
+        <v>1372569.187003806</v>
       </c>
       <c r="S11">
-        <v>0.2769190165876024</v>
+        <v>0.2291786350021733</v>
       </c>
       <c r="T11">
-        <v>0.2769190165876024</v>
+        <v>0.2291786350021732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>5608.697091969952</v>
+        <v>861.3469841287281</v>
       </c>
       <c r="R12">
-        <v>50478.27382772957</v>
+        <v>7752.122857158553</v>
       </c>
       <c r="S12">
-        <v>0.00405161500775299</v>
+        <v>0.001294376233704435</v>
       </c>
       <c r="T12">
-        <v>0.004051615007752991</v>
+        <v>0.001294376233704435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>23204.87822150783</v>
+        <v>4144.507668995968</v>
       </c>
       <c r="R13">
-        <v>208843.9039935704</v>
+        <v>37300.56902096371</v>
       </c>
       <c r="S13">
-        <v>0.0167627581439453</v>
+        <v>0.00622809660450662</v>
       </c>
       <c r="T13">
-        <v>0.0167627581439453</v>
+        <v>0.006228096604506618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>61236.83078784468</v>
+        <v>7480.429760814518</v>
       </c>
       <c r="R14">
-        <v>551131.4770906022</v>
+        <v>67323.86784733068</v>
       </c>
       <c r="S14">
-        <v>0.04423630989137951</v>
+        <v>0.01124110338656113</v>
       </c>
       <c r="T14">
-        <v>0.0442363098913795</v>
+        <v>0.01124110338656113</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>16430.59926983516</v>
+        <v>1842.520865741472</v>
       </c>
       <c r="R15">
-        <v>147875.3934285164</v>
+        <v>16582.68779167324</v>
       </c>
       <c r="S15">
-        <v>0.0118691491974757</v>
+        <v>0.002768820536514303</v>
       </c>
       <c r="T15">
-        <v>0.0118691491974757</v>
+        <v>0.002768820536514302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>70679.48615447294</v>
+        <v>5022.178886387624</v>
       </c>
       <c r="R16">
-        <v>636115.3753902564</v>
+        <v>45199.60997748862</v>
       </c>
       <c r="S16">
-        <v>0.05105750268698347</v>
+        <v>0.007547003834381378</v>
       </c>
       <c r="T16">
-        <v>0.05105750268698347</v>
+        <v>0.007547003834381377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>605.037030121315</v>
+        <v>1015.042769137599</v>
       </c>
       <c r="R17">
-        <v>5445.333271091835</v>
+        <v>9135.384922238394</v>
       </c>
       <c r="S17">
-        <v>0.0004370671247330307</v>
+        <v>0.001525340264462913</v>
       </c>
       <c r="T17">
-        <v>0.0004370671247330307</v>
+        <v>0.001525340264462912</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>2503.221402983032</v>
+        <v>4884.039322788145</v>
       </c>
       <c r="R18">
-        <v>22528.99262684729</v>
+        <v>43956.3539050933</v>
       </c>
       <c r="S18">
-        <v>0.001808279041949888</v>
+        <v>0.007339416681524122</v>
       </c>
       <c r="T18">
-        <v>0.001808279041949888</v>
+        <v>0.007339416681524119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>6605.910361421518</v>
+        <v>8815.211846869035</v>
       </c>
       <c r="R19">
-        <v>59453.19325279367</v>
+        <v>79336.90662182131</v>
       </c>
       <c r="S19">
-        <v>0.00477198271208578</v>
+        <v>0.01324692710359779</v>
       </c>
       <c r="T19">
-        <v>0.004771982712085781</v>
+        <v>0.01324692710359778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>1772.447472616652</v>
+        <v>2171.293934055876</v>
       </c>
       <c r="R20">
-        <v>15952.02725354987</v>
+        <v>19541.64540650288</v>
       </c>
       <c r="S20">
-        <v>0.001280381996522689</v>
+        <v>0.003262879323216515</v>
       </c>
       <c r="T20">
-        <v>0.001280381996522689</v>
+        <v>0.003262879323216515</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>7624.534841546048</v>
+        <v>5918.319165068818</v>
       </c>
       <c r="R21">
-        <v>68620.81357391443</v>
+        <v>53264.87248561937</v>
       </c>
       <c r="S21">
-        <v>0.005507817463590889</v>
+        <v>0.008893665168505066</v>
       </c>
       <c r="T21">
-        <v>0.005507817463590889</v>
+        <v>0.008893665168505063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>5810.347945101897</v>
+        <v>310.5155581389168</v>
       </c>
       <c r="R22">
-        <v>52293.13150591707</v>
+        <v>2794.640023250251</v>
       </c>
       <c r="S22">
-        <v>0.004197283709321009</v>
+        <v>0.0004666225877101513</v>
       </c>
       <c r="T22">
-        <v>0.004197283709321009</v>
+        <v>0.0004666225877101511</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>24039.16886217897</v>
+        <v>1494.094872057939</v>
       </c>
       <c r="R23">
-        <v>216352.5197596107</v>
+        <v>13446.85384852145</v>
       </c>
       <c r="S23">
-        <v>0.01736543367181621</v>
+        <v>0.002245228611611928</v>
       </c>
       <c r="T23">
-        <v>0.01736543367181621</v>
+        <v>0.002245228611611927</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>63438.49348579015</v>
+        <v>2696.694671367356</v>
       </c>
       <c r="R24">
-        <v>570946.4413721113</v>
+        <v>24270.25204230621</v>
       </c>
       <c r="S24">
-        <v>0.04582674871928074</v>
+        <v>0.004052417384041875</v>
       </c>
       <c r="T24">
-        <v>0.04582674871928075</v>
+        <v>0.004052417384041874</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>17021.33260877318</v>
+        <v>664.2287086975025</v>
       </c>
       <c r="R25">
-        <v>153191.9934789586</v>
+        <v>5978.058378277523</v>
       </c>
       <c r="S25">
-        <v>0.01229588361054429</v>
+        <v>0.0009981597081365557</v>
       </c>
       <c r="T25">
-        <v>0.01229588361054429</v>
+        <v>0.0009981597081365555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>73220.64294156036</v>
+        <v>1810.495315726415</v>
       </c>
       <c r="R26">
-        <v>658985.7864740433</v>
+        <v>16294.45784153773</v>
       </c>
       <c r="S26">
-        <v>0.05289318552147946</v>
+        <v>0.002720694622597354</v>
       </c>
       <c r="T26">
-        <v>0.05289318552147946</v>
+        <v>0.002720694622597354</v>
       </c>
     </row>
   </sheetData>
